--- a/out/test/Figori_algorithm_30.xlsx
+++ b/out/test/Figori_algorithm_30.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.72324999999999995</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="B1">
-        <v>0.72745000000000004</v>
+        <v>0.68910000000000005</v>
       </c>
       <c r="C1">
-        <v>0.68789999999999996</v>
+        <v>0.71160000000000001</v>
       </c>
       <c r="D1">
-        <v>0.74904999999999999</v>
+        <v>0.72235000000000005</v>
       </c>
       <c r="E1">
-        <v>0.73124999999999996</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="F1">
-        <v>0.74299999999999999</v>
+        <v>0.72989999999999999</v>
       </c>
       <c r="G1">
-        <v>0.68220000000000003</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="H1">
-        <v>0.71489999999999998</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="I1">
-        <v>0.7218</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="J1">
-        <v>0.72765000000000002</v>
+        <v>0.73939999999999995</v>
       </c>
       <c r="K1">
-        <v>0.67459999999999998</v>
+        <v>0.6804</v>
       </c>
       <c r="L1">
-        <v>0.73929999999999996</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="M1">
-        <v>0.74145000000000005</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="N1">
-        <v>0.68064999999999998</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="O1">
-        <v>0.70630000000000004</v>
+        <v>0.74519999999999997</v>
       </c>
       <c r="P1">
-        <v>0.72460000000000002</v>
+        <v>0.73080000000000001</v>
       </c>
       <c r="Q1">
-        <v>0.71745000000000003</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="R1">
-        <v>0.72960000000000003</v>
+        <v>0.71594999999999998</v>
       </c>
       <c r="S1">
-        <v>0.69099999999999995</v>
+        <v>0.71884999999999999</v>
       </c>
       <c r="T1">
-        <v>0.76429999999999998</v>
+        <v>0.75560000000000005</v>
       </c>
       <c r="U1">
-        <v>0.73150000000000004</v>
+        <v>0.70760000000000001</v>
       </c>
       <c r="V1">
-        <v>0.72975000000000001</v>
+        <v>0.75175000000000003</v>
       </c>
       <c r="W1">
-        <v>0.76280000000000003</v>
+        <v>0.71160000000000001</v>
       </c>
       <c r="X1">
-        <v>0.72689999999999999</v>
+        <v>0.7006</v>
       </c>
       <c r="Y1">
-        <v>0.72640000000000005</v>
+        <v>0.69120000000000004</v>
       </c>
       <c r="Z1">
-        <v>0.75119999999999998</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="AA1">
-        <v>0.72499999999999998</v>
+        <v>0.7157</v>
       </c>
       <c r="AB1">
-        <v>0.70920000000000005</v>
+        <v>0.72675000000000001</v>
       </c>
       <c r="AC1">
-        <v>0.72019999999999995</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="AD1">
-        <v>0.74519999999999997</v>
+        <v>0.74024999999999996</v>
       </c>
       <c r="AE1">
-        <v>0.72950000000000004</v>
+        <v>0.74070000000000003</v>
       </c>
       <c r="AF1">
-        <v>0.67800000000000005</v>
+        <v>0.68479999999999996</v>
       </c>
       <c r="AG1">
-        <v>0.7409</v>
+        <v>0.72855000000000003</v>
       </c>
       <c r="AH1">
-        <v>0.73914999999999997</v>
+        <v>0.71709999999999996</v>
       </c>
       <c r="AI1">
-        <v>0.73275000000000001</v>
+        <v>0.68679999999999997</v>
       </c>
       <c r="AJ1">
-        <v>0.71030000000000004</v>
+        <v>0.74995000000000001</v>
       </c>
       <c r="AK1">
-        <v>0.74085000000000001</v>
+        <v>0.73780000000000001</v>
       </c>
       <c r="AL1">
-        <v>0.75880000000000003</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="AM1">
-        <v>0.74460000000000004</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="AN1">
-        <v>0.72760000000000002</v>
+        <v>0.72619999999999996</v>
       </c>
       <c r="AO1">
-        <v>0.72745000000000004</v>
+        <v>0.68340000000000001</v>
       </c>
       <c r="AP1">
-        <v>0.75039999999999996</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="AQ1">
-        <v>0.75649999999999995</v>
+        <v>0.71870000000000001</v>
       </c>
       <c r="AR1">
-        <v>0.74595</v>
+        <v>0.74334999999999996</v>
       </c>
       <c r="AS1">
-        <v>0.75719999999999998</v>
+        <v>0.7661</v>
       </c>
       <c r="AT1">
-        <v>0.753</v>
+        <v>0.72785</v>
       </c>
       <c r="AU1">
-        <v>0.72224999999999995</v>
+        <v>0.69515000000000005</v>
       </c>
       <c r="AV1">
-        <v>0.68400000000000005</v>
+        <v>0.72970000000000002</v>
       </c>
       <c r="AW1">
-        <v>0.76129999999999998</v>
+        <v>0.67915000000000003</v>
       </c>
       <c r="AX1">
-        <v>0.71209999999999996</v>
+        <v>0.70804999999999996</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.70699999999999996</v>
+        <v>0.63934999999999997</v>
       </c>
       <c r="B2">
-        <v>0.70089999999999997</v>
+        <v>0.59975000000000001</v>
       </c>
       <c r="C2">
-        <v>0.49669999999999997</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="D2">
-        <v>0.72650000000000003</v>
+        <v>0.74870000000000003</v>
       </c>
       <c r="E2">
-        <v>0.79190000000000005</v>
+        <v>0.70789999999999997</v>
       </c>
       <c r="F2">
-        <v>0.81010000000000004</v>
+        <v>0.68435000000000001</v>
       </c>
       <c r="G2">
-        <v>0.58604999999999996</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="H2">
-        <v>0.76249999999999996</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="I2">
-        <v>0.8095</v>
+        <v>0.77449999999999997</v>
       </c>
       <c r="J2">
-        <v>0.69969999999999999</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="K2">
-        <v>0.65015000000000001</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="L2">
-        <v>0.73340000000000005</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="M2">
-        <v>0.73199999999999998</v>
+        <v>0.73680000000000001</v>
       </c>
       <c r="N2">
-        <v>0.65110000000000001</v>
+        <v>0.71509999999999996</v>
       </c>
       <c r="O2">
-        <v>0.69215000000000004</v>
+        <v>0.66405000000000003</v>
       </c>
       <c r="P2">
-        <v>0.69510000000000005</v>
+        <v>0.61165000000000003</v>
       </c>
       <c r="Q2">
-        <v>0.61</v>
+        <v>0.72675000000000001</v>
       </c>
       <c r="R2">
-        <v>0.78610000000000002</v>
+        <v>0.64229999999999998</v>
       </c>
       <c r="S2">
-        <v>0.5978</v>
+        <v>0.71460000000000001</v>
       </c>
       <c r="T2">
-        <v>0.82320000000000004</v>
+        <v>0.75409999999999999</v>
       </c>
       <c r="U2">
-        <v>0.81094999999999995</v>
+        <v>0.6966</v>
       </c>
       <c r="V2">
-        <v>0.77790000000000004</v>
+        <v>0.69064999999999999</v>
       </c>
       <c r="W2">
-        <v>0.74639999999999995</v>
+        <v>0.68759999999999999</v>
       </c>
       <c r="X2">
-        <v>0.72665000000000002</v>
+        <v>0.55864999999999998</v>
       </c>
       <c r="Y2">
-        <v>0.68189999999999995</v>
+        <v>0.72504999999999997</v>
       </c>
       <c r="Z2">
-        <v>0.72660000000000002</v>
+        <v>0.71389999999999998</v>
       </c>
       <c r="AA2">
-        <v>0.66139999999999999</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="AB2">
-        <v>0.67100000000000004</v>
+        <v>0.71194999999999997</v>
       </c>
       <c r="AC2">
-        <v>0.69325000000000003</v>
+        <v>0.78310000000000002</v>
       </c>
       <c r="AD2">
-        <v>0.67659999999999998</v>
+        <v>0.70935000000000004</v>
       </c>
       <c r="AE2">
-        <v>0.6956</v>
+        <v>0.69830000000000003</v>
       </c>
       <c r="AF2">
-        <v>0.80769999999999997</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="AG2">
-        <v>0.70630000000000004</v>
+        <v>0.78369999999999995</v>
       </c>
       <c r="AH2">
-        <v>0.83345000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.72904999999999998</v>
+        <v>0.55869999999999997</v>
       </c>
       <c r="AJ2">
+        <v>0.70525000000000004</v>
+      </c>
+      <c r="AK2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AL2">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="AM2">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="AN2">
+        <v>0.64739999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="AP2">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="AQ2">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="AR2">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="AS2">
+        <v>0.69889999999999997</v>
+      </c>
+      <c r="AT2">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="AU2">
+        <v>0.63229999999999997</v>
+      </c>
+      <c r="AV2">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="AW2">
+        <v>0.68605000000000005</v>
+      </c>
+      <c r="AX2">
         <v>0.64839999999999998</v>
-      </c>
-      <c r="AK2">
-        <v>0.7399</v>
-      </c>
-      <c r="AL2">
-        <v>0.83709999999999996</v>
-      </c>
-      <c r="AM2">
-        <v>0.70184999999999997</v>
-      </c>
-      <c r="AN2">
-        <v>0.80515000000000003</v>
-      </c>
-      <c r="AO2">
-        <v>0.65525</v>
-      </c>
-      <c r="AP2">
-        <v>0.64144999999999996</v>
-      </c>
-      <c r="AQ2">
-        <v>0.7349</v>
-      </c>
-      <c r="AR2">
-        <v>0.72094999999999998</v>
-      </c>
-      <c r="AS2">
-        <v>0.74470000000000003</v>
-      </c>
-      <c r="AT2">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="AU2">
-        <v>0.64480000000000004</v>
-      </c>
-      <c r="AV2">
-        <v>0.55610000000000004</v>
-      </c>
-      <c r="AW2">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="AX2">
-        <v>0.76470000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.77780000000000005</v>
+        <v>0.57820000000000005</v>
       </c>
       <c r="B3">
-        <v>0.79410000000000003</v>
+        <v>0.66105000000000003</v>
       </c>
       <c r="C3">
-        <v>0.42925000000000002</v>
+        <v>0.71394999999999997</v>
       </c>
       <c r="D3">
-        <v>0.80800000000000005</v>
+        <v>0.75629999999999997</v>
       </c>
       <c r="E3">
-        <v>0.91149999999999998</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="F3">
-        <v>0.746</v>
+        <v>0.78239999999999998</v>
       </c>
       <c r="G3">
-        <v>0.37619999999999998</v>
+        <v>0.80110000000000003</v>
       </c>
       <c r="H3">
-        <v>0.60229999999999995</v>
+        <v>0.32029999999999997</v>
       </c>
       <c r="I3">
-        <v>0.91239999999999999</v>
+        <v>0.7319</v>
       </c>
       <c r="J3">
-        <v>0.66215000000000002</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="K3">
-        <v>0.7379</v>
+        <v>0.72089999999999999</v>
       </c>
       <c r="L3">
-        <v>0.62409999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="M3">
-        <v>0.69289999999999996</v>
+        <v>0.69479999999999997</v>
       </c>
       <c r="N3">
-        <v>0.58445000000000003</v>
+        <v>0.77310000000000001</v>
       </c>
       <c r="O3">
-        <v>0.64875000000000005</v>
+        <v>0.70709999999999995</v>
       </c>
       <c r="P3">
-        <v>0.75605</v>
+        <v>0.56920000000000004</v>
       </c>
       <c r="Q3">
-        <v>0.70699999999999996</v>
+        <v>0.67179999999999995</v>
       </c>
       <c r="R3">
-        <v>0.83235000000000003</v>
+        <v>0.6573</v>
       </c>
       <c r="S3">
-        <v>0.60529999999999995</v>
+        <v>0.54590000000000005</v>
       </c>
       <c r="T3">
-        <v>0.77569999999999995</v>
+        <v>0.83950000000000002</v>
       </c>
       <c r="U3">
-        <v>0.74390000000000001</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="V3">
-        <v>0.83</v>
+        <v>0.58760000000000001</v>
       </c>
       <c r="W3">
-        <v>0.8246</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="X3">
-        <v>0.79759999999999998</v>
+        <v>0.48270000000000002</v>
       </c>
       <c r="Y3">
-        <v>0.50370000000000004</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="Z3">
-        <v>0.65590000000000004</v>
+        <v>0.89419999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.64770000000000005</v>
+        <v>0.77890000000000004</v>
       </c>
       <c r="AB3">
-        <v>0.75060000000000004</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="AC3">
-        <v>0.76039999999999996</v>
+        <v>0.76259999999999994</v>
       </c>
       <c r="AD3">
-        <v>0.69205000000000005</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="AE3">
-        <v>0.70550000000000002</v>
+        <v>0.52395000000000003</v>
       </c>
       <c r="AF3">
-        <v>0.80259999999999998</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="AG3">
-        <v>0.73570000000000002</v>
+        <v>0.67910000000000004</v>
       </c>
       <c r="AH3">
-        <v>0.78075000000000006</v>
+        <v>0.65680000000000005</v>
       </c>
       <c r="AI3">
-        <v>0.76060000000000005</v>
+        <v>0.52744999999999997</v>
       </c>
       <c r="AJ3">
-        <v>0.62450000000000006</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="AK3">
-        <v>0.77210000000000001</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="AL3">
-        <v>0.80600000000000005</v>
+        <v>0.71479999999999999</v>
       </c>
       <c r="AM3">
-        <v>0.73204999999999998</v>
+        <v>0.81659999999999999</v>
       </c>
       <c r="AN3">
-        <v>0.68400000000000005</v>
+        <v>0.70894999999999997</v>
       </c>
       <c r="AO3">
-        <v>0.55420000000000003</v>
+        <v>0.60680000000000001</v>
       </c>
       <c r="AP3">
-        <v>0.63295000000000001</v>
+        <v>0.64685000000000004</v>
       </c>
       <c r="AQ3">
-        <v>0.76839999999999997</v>
+        <v>0.75165000000000004</v>
       </c>
       <c r="AR3">
-        <v>0.82650000000000001</v>
+        <v>0.6169</v>
       </c>
       <c r="AS3">
-        <v>0.71079999999999999</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="AT3">
-        <v>0.61760000000000004</v>
+        <v>0.90410000000000001</v>
       </c>
       <c r="AU3">
-        <v>0.5988</v>
+        <v>0.72409999999999997</v>
       </c>
       <c r="AV3">
-        <v>0.42449999999999999</v>
+        <v>0.79590000000000005</v>
       </c>
       <c r="AW3">
-        <v>0.69855</v>
+        <v>0.56559999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.38929999999999998</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.84360000000000002</v>
+        <v>0.55789999999999995</v>
       </c>
       <c r="B4">
-        <v>0.76619999999999999</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="C4">
-        <v>0.29620000000000002</v>
+        <v>0.55720000000000003</v>
       </c>
       <c r="D4">
-        <v>0.69350000000000001</v>
+        <v>0.70309999999999995</v>
       </c>
       <c r="E4">
-        <v>0.89934999999999998</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="F4">
-        <v>0.73799999999999999</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="G4">
-        <v>0.44600000000000001</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="H4">
-        <v>0.4642</v>
+        <v>0.70779999999999998</v>
       </c>
       <c r="I4">
-        <v>0.89190000000000003</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="J4">
-        <v>0.67430000000000001</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="K4">
-        <v>0.81910000000000005</v>
+        <v>0.81240000000000001</v>
       </c>
       <c r="L4">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="M4">
+        <v>0.58430000000000004</v>
+      </c>
+      <c r="N4">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.45989999999999998</v>
+      </c>
+      <c r="Q4">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="R4">
+        <v>0.68169999999999997</v>
+      </c>
+      <c r="S4">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="U4">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.56555</v>
+      </c>
+      <c r="W4">
+        <v>0.61050000000000004</v>
+      </c>
+      <c r="X4">
+        <v>0.38919999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="AA4">
+        <v>0.64119999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.52775000000000005</v>
+      </c>
+      <c r="AC4">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="AD4">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="AF4">
+        <v>0.31564999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="AH4">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="AI4">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="AK4">
         <v>0.65690000000000004</v>
       </c>
-      <c r="M4">
-        <v>0.91080000000000005</v>
-      </c>
-      <c r="N4">
-        <v>0.48259999999999997</v>
-      </c>
-      <c r="O4">
-        <v>0.82969999999999999</v>
-      </c>
-      <c r="P4">
-        <v>0.64654999999999996</v>
-      </c>
-      <c r="Q4">
-        <v>0.70209999999999995</v>
-      </c>
-      <c r="R4">
-        <v>0.93330000000000002</v>
-      </c>
-      <c r="S4">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="T4">
-        <v>0.68115000000000003</v>
-      </c>
-      <c r="U4">
-        <v>0.79039999999999999</v>
-      </c>
-      <c r="V4">
-        <v>0.75480000000000003</v>
-      </c>
-      <c r="W4">
-        <v>0.77464999999999995</v>
-      </c>
-      <c r="X4">
-        <v>0.68120000000000003</v>
-      </c>
-      <c r="Y4">
-        <v>0.45429999999999998</v>
-      </c>
-      <c r="Z4">
-        <v>0.61960000000000004</v>
-      </c>
-      <c r="AA4">
-        <v>0.52995000000000003</v>
-      </c>
-      <c r="AB4">
-        <v>0.63160000000000005</v>
-      </c>
-      <c r="AC4">
-        <v>0.8528</v>
-      </c>
-      <c r="AD4">
-        <v>0.6956</v>
-      </c>
-      <c r="AE4">
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="AF4">
-        <v>0.90639999999999998</v>
-      </c>
-      <c r="AG4">
-        <v>0.68910000000000005</v>
-      </c>
-      <c r="AH4">
-        <v>0.72560000000000002</v>
-      </c>
-      <c r="AI4">
-        <v>0.69330000000000003</v>
-      </c>
-      <c r="AJ4">
-        <v>0.5282</v>
-      </c>
-      <c r="AK4">
-        <v>0.73960000000000004</v>
-      </c>
       <c r="AL4">
-        <v>0.71614999999999995</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="AM4">
-        <v>0.6179</v>
+        <v>0.77359999999999995</v>
       </c>
       <c r="AN4">
-        <v>0.49335000000000001</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="AO4">
-        <v>0.59709999999999996</v>
+        <v>0.48394999999999999</v>
       </c>
       <c r="AP4">
-        <v>0.5756</v>
+        <v>0.51329999999999998</v>
       </c>
       <c r="AQ4">
-        <v>0.66549999999999998</v>
+        <v>0.89280000000000004</v>
       </c>
       <c r="AR4">
-        <v>0.9778</v>
+        <v>0.60475000000000001</v>
       </c>
       <c r="AS4">
-        <v>0.76619999999999999</v>
+        <v>0.60609999999999997</v>
       </c>
       <c r="AT4">
-        <v>0.62780000000000002</v>
+        <v>0.81040000000000001</v>
       </c>
       <c r="AU4">
-        <v>0.50670000000000004</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="AV4">
-        <v>0.68569999999999998</v>
+        <v>0.71409999999999996</v>
       </c>
       <c r="AW4">
-        <v>0.63959999999999995</v>
+        <v>0.57869999999999999</v>
       </c>
       <c r="AX4">
-        <v>0.31230000000000002</v>
+        <v>0.57815000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.8589</v>
+        <v>0.48110000000000003</v>
       </c>
       <c r="B5">
-        <v>0.69089999999999996</v>
+        <v>0.31969999999999998</v>
       </c>
       <c r="C5">
-        <v>0.38279999999999997</v>
+        <v>0.47539999999999999</v>
       </c>
       <c r="D5">
-        <v>0.64510000000000001</v>
+        <v>0.64170000000000005</v>
       </c>
       <c r="E5">
-        <v>0.84289999999999998</v>
+        <v>0.81110000000000004</v>
       </c>
       <c r="F5">
-        <v>0.75290000000000001</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="G5">
-        <v>0.40770000000000001</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="H5">
-        <v>0.38879999999999998</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="I5">
-        <v>0.76300000000000001</v>
+        <v>0.73829999999999996</v>
       </c>
       <c r="J5">
-        <v>0.60509999999999997</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="K5">
-        <v>0.95189999999999997</v>
+        <v>0.70079999999999998</v>
       </c>
       <c r="L5">
-        <v>0.625</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="M5">
-        <v>0.91549999999999998</v>
+        <v>0.60819999999999996</v>
       </c>
       <c r="N5">
-        <v>0.81789999999999996</v>
+        <v>0.77849999999999997</v>
       </c>
       <c r="O5">
-        <v>0.76219999999999999</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="P5">
-        <v>0.86229999999999996</v>
+        <v>0.61</v>
       </c>
       <c r="Q5">
-        <v>0.79859999999999998</v>
+        <v>0.75629999999999997</v>
       </c>
       <c r="R5">
-        <v>0.84319999999999995</v>
+        <v>0.66520000000000001</v>
       </c>
       <c r="S5">
-        <v>0.6532</v>
+        <v>0.50839999999999996</v>
       </c>
       <c r="T5">
-        <v>0.74295</v>
+        <v>0.7087</v>
       </c>
       <c r="U5">
-        <v>0.77480000000000004</v>
+        <v>0.56120000000000003</v>
       </c>
       <c r="V5">
-        <v>0.59</v>
+        <v>0.53290000000000004</v>
       </c>
       <c r="W5">
-        <v>0.58819999999999995</v>
+        <v>0.58889999999999998</v>
       </c>
       <c r="X5">
-        <v>0.86050000000000004</v>
+        <v>0.36115000000000003</v>
       </c>
       <c r="Y5">
-        <v>0.50849999999999995</v>
+        <v>0.62429999999999997</v>
       </c>
       <c r="Z5">
-        <v>0.74619999999999997</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="AA5">
-        <v>0.55415000000000003</v>
+        <v>0.60829999999999995</v>
       </c>
       <c r="AB5">
-        <v>0.3831</v>
+        <v>0.59030000000000005</v>
       </c>
       <c r="AC5">
-        <v>0.88070000000000004</v>
+        <v>0.90080000000000005</v>
       </c>
       <c r="AD5">
-        <v>0.5988</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="AE5">
-        <v>0.66290000000000004</v>
+        <v>0.44419999999999998</v>
       </c>
       <c r="AF5">
-        <v>0.78010000000000002</v>
+        <v>0.13270000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.83689999999999998</v>
+        <v>0.58240000000000003</v>
       </c>
       <c r="AH5">
-        <v>0.62619999999999998</v>
+        <v>0.36070000000000002</v>
       </c>
       <c r="AI5">
-        <v>0.54990000000000006</v>
+        <v>0.38</v>
       </c>
       <c r="AJ5">
-        <v>0.40600000000000003</v>
+        <v>0.93720000000000003</v>
       </c>
       <c r="AK5">
-        <v>0.61609999999999998</v>
+        <v>0.6915</v>
       </c>
       <c r="AL5">
-        <v>0.66110000000000002</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="AM5">
-        <v>0.5716</v>
+        <v>0.64370000000000005</v>
       </c>
       <c r="AN5">
-        <v>0.57210000000000005</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="AO5">
-        <v>0.63200000000000001</v>
+        <v>0.27729999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.57530000000000003</v>
+        <v>0.4209</v>
       </c>
       <c r="AQ5">
-        <v>0.45500000000000002</v>
+        <v>0.86819999999999997</v>
       </c>
       <c r="AR5">
-        <v>0.93610000000000004</v>
+        <v>0.67689999999999995</v>
       </c>
       <c r="AS5">
-        <v>0.6956</v>
+        <v>0.64610000000000001</v>
       </c>
       <c r="AT5">
-        <v>0.77859999999999996</v>
+        <v>0.77470000000000006</v>
       </c>
       <c r="AU5">
-        <v>0.51600000000000001</v>
+        <v>0.5222</v>
       </c>
       <c r="AV5">
-        <v>0.70099999999999996</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="AW5">
-        <v>0.61229999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="AX5">
-        <v>0.40949999999999998</v>
+        <v>0.58509999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.75649999999999995</v>
+        <v>0.42309999999999998</v>
       </c>
       <c r="B6">
-        <v>0.69910000000000005</v>
+        <v>0.42659999999999998</v>
       </c>
       <c r="C6">
-        <v>0.84340000000000004</v>
+        <v>0.77710000000000001</v>
       </c>
       <c r="D6">
-        <v>0.69069999999999998</v>
+        <v>0.83889999999999998</v>
       </c>
       <c r="E6">
-        <v>0.79249999999999998</v>
+        <v>0.84</v>
       </c>
       <c r="F6">
-        <v>0.81120000000000003</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="G6">
-        <v>0.35460000000000003</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="H6">
-        <v>0.32119999999999999</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="I6">
-        <v>0.90910000000000002</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="J6">
-        <v>0.59319999999999995</v>
+        <v>0.52159999999999995</v>
       </c>
       <c r="K6">
-        <v>0.89159999999999995</v>
+        <v>0.7893</v>
       </c>
       <c r="L6">
-        <v>0.67430000000000001</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="M6">
-        <v>0.90639999999999998</v>
+        <v>0.67920000000000003</v>
       </c>
       <c r="N6">
-        <v>0.61950000000000005</v>
+        <v>0.68769999999999998</v>
       </c>
       <c r="O6">
-        <v>0.76785000000000003</v>
+        <v>0.37719999999999998</v>
       </c>
       <c r="P6">
-        <v>0.747</v>
+        <v>0.57830000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.6613</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="R6">
-        <v>0.77539999999999998</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="S6">
-        <v>0.77090000000000003</v>
+        <v>0.31790000000000002</v>
       </c>
       <c r="T6">
-        <v>0.78959999999999997</v>
+        <v>0.52390000000000003</v>
       </c>
       <c r="U6">
-        <v>0.76770000000000005</v>
+        <v>0.82240000000000002</v>
       </c>
       <c r="V6">
-        <v>0.34260000000000002</v>
+        <v>0.47660000000000002</v>
       </c>
       <c r="W6">
-        <v>0.37545000000000001</v>
+        <v>0.49159999999999998</v>
       </c>
       <c r="X6">
-        <v>0.93659999999999999</v>
+        <v>0.24909999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.51229999999999998</v>
+        <v>0.57450000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.70920000000000005</v>
+        <v>0.76980000000000004</v>
       </c>
       <c r="AA6">
-        <v>0.67610000000000003</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.27450000000000002</v>
+        <v>0.62560000000000004</v>
       </c>
       <c r="AC6">
-        <v>0.77939999999999998</v>
+        <v>0.89329999999999998</v>
       </c>
       <c r="AD6">
-        <v>0.31859999999999999</v>
+        <v>0.71909999999999996</v>
       </c>
       <c r="AE6">
-        <v>0.68640000000000001</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="AF6">
-        <v>0.94850000000000001</v>
+        <v>0.55510000000000004</v>
       </c>
       <c r="AG6">
-        <v>0.86060000000000003</v>
+        <v>0.43209999999999998</v>
       </c>
       <c r="AH6">
-        <v>0.47389999999999999</v>
+        <v>0.28170000000000001</v>
       </c>
       <c r="AI6">
-        <v>0.69389999999999996</v>
+        <v>0.26390000000000002</v>
       </c>
       <c r="AJ6">
-        <v>0.28860000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="AK6">
-        <v>0.6613</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="AL6">
-        <v>0.62790000000000001</v>
+        <v>0.80359999999999998</v>
       </c>
       <c r="AM6">
-        <v>0.35020000000000001</v>
+        <v>0.44030000000000002</v>
       </c>
       <c r="AN6">
-        <v>0.48259999999999997</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="AO6">
-        <v>0.67359999999999998</v>
+        <v>0.31709999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.43490000000000001</v>
+        <v>0.27829999999999999</v>
       </c>
       <c r="AQ6">
-        <v>0.32129999999999997</v>
+        <v>0.74729999999999996</v>
       </c>
       <c r="AR6">
-        <v>0.82189999999999996</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="AS6">
-        <v>0.63480000000000003</v>
+        <v>0.63119999999999998</v>
       </c>
       <c r="AT6">
-        <v>0.70499999999999996</v>
+        <v>0.81440000000000001</v>
       </c>
       <c r="AU6">
-        <v>0.70069999999999999</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="AV6">
-        <v>0.55769999999999997</v>
+        <v>0.5484</v>
       </c>
       <c r="AW6">
-        <v>0.62360000000000004</v>
+        <v>0.50839999999999996</v>
       </c>
       <c r="AX6">
-        <v>0.67600000000000005</v>
+        <v>0.67720000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.56469999999999998</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="B7">
-        <v>0.62339999999999995</v>
+        <v>0.45069999999999999</v>
       </c>
       <c r="C7">
-        <v>0.89649999999999996</v>
+        <v>0.76819999999999999</v>
       </c>
       <c r="D7">
-        <v>0.78210000000000002</v>
+        <v>0.69430000000000003</v>
       </c>
       <c r="E7">
-        <v>0.66</v>
+        <v>0.78580000000000005</v>
       </c>
       <c r="F7">
-        <v>0.77839999999999998</v>
+        <v>0.7863</v>
       </c>
       <c r="G7">
-        <v>0.186</v>
+        <v>0.7429</v>
       </c>
       <c r="H7">
-        <v>0.60150000000000003</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="I7">
-        <v>0.84899999999999998</v>
+        <v>0.72950000000000004</v>
       </c>
       <c r="J7">
-        <v>0.58899999999999997</v>
+        <v>0.42149999999999999</v>
       </c>
       <c r="K7">
-        <v>0.92190000000000005</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="L7">
-        <v>0.40510000000000002</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="M7">
-        <v>0.91510000000000002</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="N7">
-        <v>0.78539999999999999</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="O7">
-        <v>0.7792</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="P7">
-        <v>0.78049999999999997</v>
+        <v>0.4027</v>
       </c>
       <c r="Q7">
-        <v>0.66320000000000001</v>
+        <v>0.78380000000000005</v>
       </c>
       <c r="R7">
-        <v>0.81340000000000001</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="S7">
-        <v>0.5927</v>
+        <v>0.3866</v>
       </c>
       <c r="T7">
-        <v>0.86890000000000001</v>
+        <v>0.48980000000000001</v>
       </c>
       <c r="U7">
-        <v>0.66159999999999997</v>
+        <v>0.92179999999999995</v>
       </c>
       <c r="V7">
-        <v>0.47710000000000002</v>
+        <v>0.54969999999999997</v>
       </c>
       <c r="W7">
-        <v>0.61650000000000005</v>
+        <v>0.38229999999999997</v>
       </c>
       <c r="X7">
-        <v>0.88390000000000002</v>
+        <v>0.50470000000000004</v>
       </c>
       <c r="Y7">
-        <v>0.46629999999999999</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="Z7">
-        <v>0.65290000000000004</v>
+        <v>0.68779999999999997</v>
       </c>
       <c r="AA7">
-        <v>0.66369999999999996</v>
+        <v>0.89770000000000005</v>
       </c>
       <c r="AB7">
-        <v>0.46610000000000001</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="AC7">
-        <v>0.87470000000000003</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.35499999999999998</v>
+        <v>0.83160000000000001</v>
       </c>
       <c r="AE7">
-        <v>0.52449999999999997</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="AF7">
-        <v>0.89349999999999996</v>
+        <v>0.74160000000000004</v>
       </c>
       <c r="AG7">
-        <v>0.78059999999999996</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.40360000000000001</v>
+        <v>0.2863</v>
       </c>
       <c r="AI7">
-        <v>0.65980000000000005</v>
+        <v>0.48430000000000001</v>
       </c>
       <c r="AJ7">
-        <v>0.43440000000000001</v>
+        <v>0.8196</v>
       </c>
       <c r="AK7">
-        <v>0.36170000000000002</v>
+        <v>0.5252</v>
       </c>
       <c r="AL7">
-        <v>0.5212</v>
+        <v>0.65590000000000004</v>
       </c>
       <c r="AM7">
-        <v>0.25440000000000002</v>
+        <v>0.51419999999999999</v>
       </c>
       <c r="AN7">
-        <v>0.53190000000000004</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="AO7">
-        <v>0.55230000000000001</v>
+        <v>0.4153</v>
       </c>
       <c r="AP7">
-        <v>0.37319999999999998</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="AQ7">
-        <v>0.29749999999999999</v>
+        <v>0.75329999999999997</v>
       </c>
       <c r="AR7">
-        <v>0.85970000000000002</v>
+        <v>0.61209999999999998</v>
       </c>
       <c r="AS7">
-        <v>0.68400000000000005</v>
+        <v>0.54490000000000005</v>
       </c>
       <c r="AT7">
-        <v>0.68049999999999999</v>
+        <v>0.82320000000000004</v>
       </c>
       <c r="AU7">
-        <v>0.53220000000000001</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="AV7">
-        <v>0.71419999999999995</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="AW7">
-        <v>0.7036</v>
+        <v>0.42820000000000003</v>
       </c>
       <c r="AX7">
-        <v>0.72870000000000001</v>
+        <v>0.54559999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.5363</v>
+        <v>0.54390000000000005</v>
       </c>
       <c r="B8">
-        <v>0.44729999999999998</v>
+        <v>0.46739999999999998</v>
       </c>
       <c r="C8">
-        <v>0.79449999999999998</v>
+        <v>0.76129999999999998</v>
       </c>
       <c r="D8">
-        <v>0.69</v>
+        <v>0.84119999999999995</v>
       </c>
       <c r="E8">
-        <v>0.49530000000000002</v>
+        <v>0.81210000000000004</v>
       </c>
       <c r="F8">
-        <v>0.79759999999999998</v>
+        <v>0.82930000000000004</v>
       </c>
       <c r="G8">
-        <v>3.44E-2</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="H8">
-        <v>0.7641</v>
+        <v>0.75260000000000005</v>
       </c>
       <c r="I8">
-        <v>0.76900000000000002</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="J8">
-        <v>0.53180000000000005</v>
+        <v>0.35160000000000002</v>
       </c>
       <c r="K8">
-        <v>0.83099999999999996</v>
+        <v>0.54730000000000001</v>
       </c>
       <c r="L8">
-        <v>0.25469999999999998</v>
+        <v>0.5101</v>
       </c>
       <c r="M8">
-        <v>0.87290000000000001</v>
+        <v>0.80420000000000003</v>
       </c>
       <c r="N8">
-        <v>0.76639999999999997</v>
+        <v>0.4224</v>
       </c>
       <c r="O8">
-        <v>0.89139999999999997</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="P8">
-        <v>0.68220000000000003</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.6401</v>
+        <v>0.88929999999999998</v>
       </c>
       <c r="R8">
-        <v>0.78069999999999995</v>
+        <v>0.63170000000000004</v>
       </c>
       <c r="S8">
-        <v>0.50800000000000001</v>
+        <v>0.5554</v>
       </c>
       <c r="T8">
-        <v>0.89790000000000003</v>
+        <v>0.57579999999999998</v>
       </c>
       <c r="U8">
-        <v>0.89949999999999997</v>
+        <v>0.87849999999999995</v>
       </c>
       <c r="V8">
-        <v>0.43709999999999999</v>
+        <v>0.71650000000000003</v>
       </c>
       <c r="W8">
-        <v>0.51900000000000002</v>
+        <v>0.83309999999999995</v>
       </c>
       <c r="X8">
-        <v>0.88900000000000001</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="Y8">
-        <v>0.67669999999999997</v>
+        <v>0.39739999999999998</v>
       </c>
       <c r="Z8">
-        <v>0.57699999999999996</v>
+        <v>0.56840000000000002</v>
       </c>
       <c r="AA8">
-        <v>0.57420000000000004</v>
+        <v>0.6472</v>
       </c>
       <c r="AB8">
-        <v>0.52110000000000001</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="AC8">
-        <v>0.97599999999999998</v>
+        <v>0.71230000000000004</v>
       </c>
       <c r="AD8">
-        <v>0.45579999999999998</v>
+        <v>0.70420000000000005</v>
       </c>
       <c r="AE8">
-        <v>0.64859999999999995</v>
+        <v>0.5151</v>
       </c>
       <c r="AF8">
-        <v>0.82750000000000001</v>
+        <v>0.61160000000000003</v>
       </c>
       <c r="AG8">
-        <v>0.86990000000000001</v>
+        <v>0.21959999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.24610000000000001</v>
+        <v>0.21609999999999999</v>
       </c>
       <c r="AI8">
-        <v>0.4274</v>
+        <v>0.41310000000000002</v>
       </c>
       <c r="AJ8">
-        <v>0.37295</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="AK8">
-        <v>0.4511</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.63370000000000004</v>
+        <v>0.5484</v>
       </c>
       <c r="AM8">
-        <v>0.2591</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="AN8">
-        <v>0.49280000000000002</v>
+        <v>0.61</v>
       </c>
       <c r="AO8">
-        <v>0.70150000000000001</v>
+        <v>0.4597</v>
       </c>
       <c r="AP8">
-        <v>0.4783</v>
+        <v>0.16569999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.39250000000000002</v>
+        <v>0.64929999999999999</v>
       </c>
       <c r="AR8">
-        <v>0.7802</v>
+        <v>0.51780000000000004</v>
       </c>
       <c r="AS8">
-        <v>0.79559999999999997</v>
+        <v>0.4899</v>
       </c>
       <c r="AT8">
-        <v>0.74750000000000005</v>
+        <v>0.94520000000000004</v>
       </c>
       <c r="AU8">
-        <v>0.40899999999999997</v>
+        <v>0.49640000000000001</v>
       </c>
       <c r="AV8">
-        <v>0.69059999999999999</v>
+        <v>0.52190000000000003</v>
       </c>
       <c r="AW8">
-        <v>0.76180000000000003</v>
+        <v>0.2366</v>
       </c>
       <c r="AX8">
-        <v>0.60029999999999994</v>
+        <v>0.37080000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.3175</v>
+        <v>0.48430000000000001</v>
       </c>
       <c r="B9">
+        <v>0.23760000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.73109999999999997</v>
+      </c>
+      <c r="G9">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.5595</v>
+      </c>
+      <c r="I9">
+        <v>0.6351</v>
+      </c>
+      <c r="J9">
         <v>0.48349999999999999</v>
       </c>
-      <c r="C9">
-        <v>0.5272</v>
-      </c>
-      <c r="D9">
-        <v>0.62260000000000004</v>
-      </c>
-      <c r="E9">
-        <v>0.32229999999999998</v>
-      </c>
-      <c r="F9">
-        <v>0.67179999999999995</v>
-      </c>
-      <c r="G9">
-        <v>6.8699999999999997E-2</v>
-      </c>
-      <c r="H9">
-        <v>0.54469999999999996</v>
-      </c>
-      <c r="I9">
-        <v>0.63549999999999995</v>
-      </c>
-      <c r="J9">
-        <v>0.69210000000000005</v>
-      </c>
       <c r="K9">
-        <v>0.76160000000000005</v>
+        <v>0.44850000000000001</v>
       </c>
       <c r="L9">
-        <v>0.38769999999999999</v>
+        <v>0.48159999999999997</v>
       </c>
       <c r="M9">
-        <v>0.74399999999999999</v>
+        <v>0.83220000000000005</v>
       </c>
       <c r="N9">
-        <v>0.8337</v>
+        <v>0.34789999999999999</v>
       </c>
       <c r="O9">
-        <v>0.8115</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="P9">
-        <v>0.74839999999999995</v>
+        <v>0.40129999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.69410000000000005</v>
+        <v>0.88759999999999994</v>
       </c>
       <c r="R9">
-        <v>0.71560000000000001</v>
+        <v>0.8579</v>
       </c>
       <c r="S9">
-        <v>0.43390000000000001</v>
+        <v>0.754</v>
       </c>
       <c r="T9">
-        <v>0.94589999999999996</v>
+        <v>0.72829999999999995</v>
       </c>
       <c r="U9">
-        <v>0.82240000000000002</v>
+        <v>0.97609999999999997</v>
       </c>
       <c r="V9">
-        <v>0.52910000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="W9">
-        <v>0.46150000000000002</v>
+        <v>0.79769999999999996</v>
       </c>
       <c r="X9">
-        <v>0.77400000000000002</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.61040000000000005</v>
+        <v>0.45569999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.50209999999999999</v>
+        <v>0.66930000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.52290000000000003</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="AB9">
-        <v>0.29239999999999999</v>
+        <v>0.78049999999999997</v>
       </c>
       <c r="AC9">
-        <v>0.93899999999999995</v>
+        <v>0.76590000000000003</v>
       </c>
       <c r="AD9">
-        <v>0.50239999999999996</v>
+        <v>0.57330000000000003</v>
       </c>
       <c r="AE9">
-        <v>0.38219999999999998</v>
+        <v>0.5524</v>
       </c>
       <c r="AF9">
-        <v>0.62280000000000002</v>
+        <v>0.52429999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.86450000000000005</v>
+        <v>0.30509999999999998</v>
       </c>
       <c r="AH9">
-        <v>6.2399999999999997E-2</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.6139</v>
+        <v>0.47939999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.48720000000000002</v>
+        <v>0.6341</v>
       </c>
       <c r="AK9">
-        <v>0.71009999999999995</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.73499999999999999</v>
+        <v>0.4153</v>
       </c>
       <c r="AM9">
-        <v>0.3014</v>
+        <v>0.64490000000000003</v>
       </c>
       <c r="AN9">
-        <v>0.46550000000000002</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="AO9">
-        <v>0.58589999999999998</v>
+        <v>0.28029999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.41</v>
+        <v>0.3664</v>
       </c>
       <c r="AQ9">
-        <v>0.35780000000000001</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="AR9">
-        <v>0.79969999999999997</v>
+        <v>0.55579999999999996</v>
       </c>
       <c r="AS9">
-        <v>0.88790000000000002</v>
+        <v>0.7208</v>
       </c>
       <c r="AT9">
-        <v>0.72529999999999994</v>
+        <v>0.93369999999999997</v>
       </c>
       <c r="AU9">
-        <v>0.35870000000000002</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="AV9">
-        <v>0.92600000000000005</v>
+        <v>0.61140000000000005</v>
       </c>
       <c r="AW9">
-        <v>0.49659999999999999</v>
+        <v>0.28239999999999998</v>
       </c>
       <c r="AX9">
-        <v>0.71930000000000005</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.28660000000000002</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="B10">
-        <v>0.4713</v>
+        <v>0.30640000000000001</v>
       </c>
       <c r="C10">
-        <v>0.4148</v>
+        <v>0.75409999999999999</v>
       </c>
       <c r="D10">
-        <v>0.82350000000000001</v>
+        <v>0.74109999999999998</v>
       </c>
       <c r="E10">
-        <v>0.32390000000000002</v>
+        <v>0.83560000000000001</v>
       </c>
       <c r="F10">
-        <v>0.75260000000000005</v>
+        <v>0.89749999999999996</v>
       </c>
       <c r="G10">
-        <v>2.3099999999999999E-2</v>
+        <v>0.51219999999999999</v>
       </c>
       <c r="H10">
-        <v>0.55479999999999996</v>
+        <v>0.2072</v>
       </c>
       <c r="I10">
-        <v>0.7228</v>
+        <v>0.55859999999999999</v>
       </c>
       <c r="J10">
-        <v>0.70320000000000005</v>
+        <v>0.4798</v>
       </c>
       <c r="K10">
-        <v>0.69620000000000004</v>
+        <v>0.43859999999999999</v>
       </c>
       <c r="L10">
-        <v>0.28999999999999998</v>
+        <v>0.58009999999999995</v>
       </c>
       <c r="M10">
-        <v>0.63790000000000002</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="N10">
-        <v>0.83660000000000001</v>
+        <v>0.33929999999999999</v>
       </c>
       <c r="O10">
-        <v>0.85760000000000003</v>
+        <v>0.48170000000000002</v>
       </c>
       <c r="P10">
-        <v>0.57999999999999996</v>
+        <v>9.9400000000000002E-2</v>
       </c>
       <c r="Q10">
-        <v>0.63260000000000005</v>
+        <v>0.94779999999999998</v>
       </c>
       <c r="R10">
-        <v>0.58960000000000001</v>
+        <v>0.79890000000000005</v>
       </c>
       <c r="S10">
-        <v>0.45779999999999998</v>
+        <v>0.75880000000000003</v>
       </c>
       <c r="T10">
-        <v>0.94579999999999997</v>
+        <v>0.69830000000000003</v>
       </c>
       <c r="U10">
-        <v>0.72860000000000003</v>
+        <v>0.86560000000000004</v>
       </c>
       <c r="V10">
-        <v>0.58240000000000003</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="W10">
-        <v>0.50639999999999996</v>
+        <v>0.76339999999999997</v>
       </c>
       <c r="X10">
-        <v>0.8831</v>
+        <v>0.7339</v>
       </c>
       <c r="Y10">
-        <v>0.3821</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.53100000000000003</v>
+        <v>0.59250000000000003</v>
       </c>
       <c r="AA10">
-        <v>0.51939999999999997</v>
+        <v>0.3715</v>
       </c>
       <c r="AB10">
-        <v>0.3256</v>
+        <v>0.80840000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.83160000000000001</v>
+        <v>0.65569999999999995</v>
       </c>
       <c r="AD10">
-        <v>0.53520000000000001</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="AE10">
-        <v>0.4219</v>
+        <v>0.59840000000000004</v>
       </c>
       <c r="AF10">
-        <v>0.73140000000000005</v>
+        <v>0.40239999999999998</v>
       </c>
       <c r="AG10">
-        <v>0.95240000000000002</v>
+        <v>0.46039999999999998</v>
       </c>
       <c r="AH10">
-        <v>6.5799999999999997E-2</v>
+        <v>0.35089999999999999</v>
       </c>
       <c r="AI10">
-        <v>0.62529999999999997</v>
+        <v>0.66369999999999996</v>
       </c>
       <c r="AJ10">
-        <v>0.77359999999999995</v>
+        <v>0.49980000000000002</v>
       </c>
       <c r="AK10">
-        <v>0.77700000000000002</v>
+        <v>0.1216</v>
       </c>
       <c r="AL10">
-        <v>0.82740000000000002</v>
+        <v>0.31309999999999999</v>
       </c>
       <c r="AM10">
-        <v>0.45989999999999998</v>
+        <v>0.75680000000000003</v>
       </c>
       <c r="AN10">
-        <v>0.4798</v>
+        <v>0.77559999999999996</v>
       </c>
       <c r="AO10">
-        <v>0.56679999999999997</v>
+        <v>0.17849999999999999</v>
       </c>
       <c r="AP10">
-        <v>0.51190000000000002</v>
+        <v>0.56979999999999997</v>
       </c>
       <c r="AQ10">
-        <v>0.30130000000000001</v>
+        <v>0.4536</v>
       </c>
       <c r="AR10">
-        <v>0.79790000000000005</v>
+        <v>0.44850000000000001</v>
       </c>
       <c r="AS10">
-        <v>0.7843</v>
+        <v>0.5131</v>
       </c>
       <c r="AT10">
-        <v>0.71989999999999998</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="AU10">
-        <v>0.32940000000000003</v>
+        <v>0.29509999999999997</v>
       </c>
       <c r="AV10">
-        <v>0.85540000000000005</v>
+        <v>0.5171</v>
       </c>
       <c r="AW10">
-        <v>0.44119999999999998</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="AX10">
-        <v>0.60099999999999998</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.13639999999999999</v>
+        <v>0.56810000000000005</v>
       </c>
       <c r="B11">
-        <v>0.27389999999999998</v>
+        <v>0.69289999999999996</v>
       </c>
       <c r="C11">
-        <v>0.1113</v>
+        <v>0.7661</v>
       </c>
       <c r="D11">
-        <v>0.69369999999999998</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E11">
-        <v>0.48530000000000001</v>
+        <v>0.74860000000000004</v>
       </c>
       <c r="F11">
-        <v>0.5353</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="G11">
-        <v>3.56E-2</v>
+        <v>0.50639999999999996</v>
       </c>
       <c r="H11">
-        <v>0.3997</v>
+        <v>0.51970000000000005</v>
       </c>
       <c r="I11">
-        <v>0.58240000000000003</v>
+        <v>0.67679999999999996</v>
       </c>
       <c r="J11">
-        <v>0.6401</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="K11">
-        <v>0.57750000000000001</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="L11">
-        <v>0.42380000000000001</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="M11">
-        <v>0.62139999999999995</v>
+        <v>0.76149999999999995</v>
       </c>
       <c r="N11">
-        <v>0.84799999999999998</v>
+        <v>0.49120000000000003</v>
       </c>
       <c r="O11">
-        <v>0.74980000000000002</v>
+        <v>0.4572</v>
       </c>
       <c r="P11">
-        <v>0.64339999999999997</v>
+        <v>0.2621</v>
       </c>
       <c r="Q11">
-        <v>0.55669999999999997</v>
+        <v>0.94879999999999998</v>
       </c>
       <c r="R11">
-        <v>0.61739999999999995</v>
+        <v>0.85840000000000005</v>
       </c>
       <c r="S11">
-        <v>0.54730000000000001</v>
+        <v>0.67710000000000004</v>
       </c>
       <c r="T11">
-        <v>0.84450000000000003</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="U11">
-        <v>0.8508</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="V11">
-        <v>0.3881</v>
+        <v>0.71950000000000003</v>
       </c>
       <c r="W11">
-        <v>0.58260000000000001</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="X11">
-        <v>0.75870000000000004</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="Y11">
-        <v>0.56569999999999998</v>
+        <v>0.19670000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.70840000000000003</v>
+        <v>0.73819999999999997</v>
       </c>
       <c r="AA11">
-        <v>0.72089999999999999</v>
+        <v>0.21690000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.33910000000000001</v>
+        <v>0.61639999999999995</v>
       </c>
       <c r="AC11">
-        <v>0.66679999999999995</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="AD11">
-        <v>0.42680000000000001</v>
+        <v>0.66120000000000001</v>
       </c>
       <c r="AE11">
-        <v>0.45989999999999998</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="AF11">
-        <v>0.67830000000000001</v>
+        <v>0.35449999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.97350000000000003</v>
+        <v>0.44379999999999997</v>
       </c>
       <c r="AH11">
-        <v>7.0400000000000004E-2</v>
+        <v>0.55869999999999997</v>
       </c>
       <c r="AI11">
-        <v>0.55379999999999996</v>
+        <v>0.59450000000000003</v>
       </c>
       <c r="AJ11">
-        <v>0.75919999999999999</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="AK11">
-        <v>0.67059999999999997</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AL11">
-        <v>0.80410000000000004</v>
+        <v>0.56520000000000004</v>
       </c>
       <c r="AM11">
-        <v>0.41589999999999999</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="AN11">
-        <v>0.37769999999999998</v>
+        <v>0.70350000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.5645</v>
+        <v>0.3553</v>
       </c>
       <c r="AP11">
-        <v>0.48699999999999999</v>
+        <v>0.62549999999999994</v>
       </c>
       <c r="AQ11">
-        <v>0.25359999999999999</v>
+        <v>0.80030000000000001</v>
       </c>
       <c r="AR11">
-        <v>0.79830000000000001</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="AS11">
-        <v>0.63560000000000005</v>
+        <v>0.58309999999999995</v>
       </c>
       <c r="AT11">
-        <v>0.83919999999999995</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="AU11">
-        <v>0.42370000000000002</v>
+        <v>0.2697</v>
       </c>
       <c r="AV11">
-        <v>0.85640000000000005</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.52790000000000004</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="AX11">
-        <v>0.49419999999999997</v>
+        <v>4.7899999999999998E-2</v>
       </c>
     </row>
   </sheetData>
